--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Documents\GitHub\g5-pcb\STM32F407 era\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Documents\GitHub\g5-pcb\STM32F407 era\Traction control modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>sensor</t>
   </si>
@@ -110,9 +110,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Relay Control</t>
-  </si>
-  <si>
     <t>IO needed</t>
   </si>
   <si>
@@ -126,6 +123,15 @@
   </si>
   <si>
     <t>H-bridge module</t>
+  </si>
+  <si>
+    <t>Relay Control (relay box)</t>
+  </si>
+  <si>
+    <t>Relay Control (Expansion)</t>
+  </si>
+  <si>
+    <t>Relay control power</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +661,6 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -682,9 +685,6 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1004,9 +1004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -1027,20 +1027,23 @@
       <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1051,14 +1054,23 @@
       <c r="H21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1067,16 +1079,25 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1087,8 +1108,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1106,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1124,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1142,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1160,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1178,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1196,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1214,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1232,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1272,11 +1296,11 @@
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5">
         <f>SUM(D2:D33)</f>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
@@ -1288,32 +1312,32 @@
       </c>
       <c r="H34">
         <f>SUM(H2:H33)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I34" s="6">
         <f>SUM(F34:H34)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="8">
         <f>(48+48)-D34</f>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I35" s="7">
         <f>78-I34</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>sensor</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Relay control power</t>
+  </si>
+  <si>
+    <t>gyrometer</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +616,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -637,6 +643,9 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -661,6 +670,9 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -685,6 +697,9 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -739,6 +754,9 @@
       <c r="H8">
         <v>3</v>
       </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1113,21 +1131,30 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1300,11 +1327,11 @@
       </c>
       <c r="D34" s="5">
         <f>SUM(D2:D33)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <f>SUM(G2:G33)</f>
@@ -1312,11 +1339,11 @@
       </c>
       <c r="H34">
         <f>SUM(H2:H33)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" s="6">
         <f>SUM(F34:H34)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -1330,11 +1357,11 @@
       </c>
       <c r="D35" s="8">
         <f>(48+48)-D34</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I35" s="7">
         <f>78-I34</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J35" t="s">
         <v>29</v>

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>sensor</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,9 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>sensor</t>
   </si>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,6 +339,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -374,6 +391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -529,13 +563,13 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
@@ -856,6 +890,9 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -904,6 +941,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -928,6 +968,9 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -976,6 +1019,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -999,6 +1045,9 @@
       </c>
       <c r="H18">
         <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>sensor</t>
   </si>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,23 +339,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -391,23 +374,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -563,13 +529,13 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
@@ -842,6 +808,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1011,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1383,7 +1352,7 @@
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <f>SUM(G2:G33)</f>
@@ -1395,7 +1364,7 @@
       </c>
       <c r="I34" s="6">
         <f>SUM(F34:H34)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -1413,7 +1382,7 @@
       </c>
       <c r="I35" s="7">
         <f>78-I34</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
         <v>29</v>

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Documents\GitHub\g5-pcb\STM32F407 era\Traction control modul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Dokumenter\GitHub\g5-pcb\STM32F407 era\Traction control modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>sensor</t>
   </si>
@@ -135,12 +135,15 @@
   </si>
   <si>
     <t>gyrometer</t>
+  </si>
+  <si>
+    <t>AUX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,6 +342,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -374,6 +394,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -529,13 +566,13 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
@@ -655,11 +692,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -682,11 +719,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -886,6 +923,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -964,20 +1004,23 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1042,6 +1085,9 @@
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1078,11 +1124,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1179,12 +1225,18 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1193,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,7 +1400,7 @@
       </c>
       <c r="D34" s="5">
         <f>SUM(D2:D33)</f>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
@@ -1360,11 +1412,11 @@
       </c>
       <c r="H34">
         <f>SUM(H2:H33)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I34" s="6">
         <f>SUM(F34:H34)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -1378,11 +1430,11 @@
       </c>
       <c r="D35" s="8">
         <f>(48+48)-D34</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <f>78-I34</f>
-        <v>31</v>
+        <f>68-I34</f>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>29</v>

--- a/STM32F407 era/Traction control modul/sensor overview.xlsx
+++ b/STM32F407 era/Traction control modul/sensor overview.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Dokumenter\GitHub\g5-pcb\STM32F407 era\Traction control modul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Documents\GitHub\g5-pcb\STM32F407 era\Traction control modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>sensor</t>
   </si>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,23 +342,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -394,23 +377,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -566,13 +532,13 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
@@ -872,6 +838,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
